--- a/input/ahp_template_Goal.xlsx
+++ b/input/ahp_template_Goal.xlsx
@@ -1151,7 +1151,7 @@
   <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelRow="6" outlineLevelCol="6"/>

--- a/input/ahp_template_Goal.xlsx
+++ b/input/ahp_template_Goal.xlsx
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="46">
   <si>
     <t>技术风险C1</t>
   </si>
@@ -53,37 +53,58 @@
     <t>合规风险C6</t>
   </si>
   <si>
+    <t>7</t>
+  </si>
+  <si>
     <t>5</t>
   </si>
   <si>
     <t>3</t>
   </si>
   <si>
+    <t>4</t>
+  </si>
+  <si>
     <t>2</t>
   </si>
   <si>
-    <t>4</t>
+    <t>自动计算</t>
+  </si>
+  <si>
+    <t>1/3</t>
+  </si>
+  <si>
+    <t>1/5</t>
+  </si>
+  <si>
+    <t>1/2</t>
+  </si>
+  <si>
+    <t>1/6</t>
+  </si>
+  <si>
+    <t>1/4</t>
+  </si>
+  <si>
+    <t>1/8</t>
   </si>
   <si>
     <t>6</t>
   </si>
   <si>
-    <t>自动计算</t>
-  </si>
-  <si>
-    <t>1/3</t>
-  </si>
-  <si>
-    <t>1/2</t>
+    <t>9</t>
+  </si>
+  <si>
+    <t>1/7</t>
+  </si>
+  <si>
+    <t>8</t>
   </si>
   <si>
     <t>1</t>
   </si>
   <si>
-    <t>1/4</t>
-  </si>
-  <si>
-    <t>1/5</t>
+    <t>1/9</t>
   </si>
   <si>
     <t>Expert</t>
@@ -1151,730 +1172,6 @@
   <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelRow="6" outlineLevelCol="6"/>
-  <cols>
-    <col min="1" max="1" width="15" customWidth="1"/>
-    <col min="2" max="5" width="14" customWidth="1"/>
-    <col min="6" max="6" width="15" customWidth="1"/>
-    <col min="7" max="7" width="14" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="2:7">
-      <c r="B1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
-      <c r="A2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="2">
-        <v>1</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
-      <c r="A3" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C3" s="2">
-        <v>1</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="G3" s="3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D4" s="2">
-        <v>1</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="G4" s="3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
-      <c r="A5" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E5" s="2">
-        <v>1</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="G5" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7">
-      <c r="A6" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F6" s="2">
-        <v>1</v>
-      </c>
-      <c r="G6" s="3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
-      <c r="A7" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G7" s="2">
-        <v>1</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:G7"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:G7"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelRow="6" outlineLevelCol="6"/>
-  <cols>
-    <col min="1" max="1" width="15" customWidth="1"/>
-    <col min="2" max="5" width="14" customWidth="1"/>
-    <col min="6" max="6" width="15" customWidth="1"/>
-    <col min="7" max="7" width="14" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="2:7">
-      <c r="B1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
-      <c r="A2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="2">
-        <v>1</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
-      <c r="A3" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C3" s="2">
-        <v>1</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="G3" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D4" s="2">
-        <v>1</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G4" s="3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
-      <c r="A5" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E5" s="2">
-        <v>1</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="G5" s="3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7">
-      <c r="A6" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F6" s="2">
-        <v>1</v>
-      </c>
-      <c r="G6" s="3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
-      <c r="A7" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G7" s="2">
-        <v>1</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:G7"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:G7"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelRow="6" outlineLevelCol="6"/>
-  <cols>
-    <col min="1" max="1" width="15" customWidth="1"/>
-    <col min="2" max="5" width="14" customWidth="1"/>
-    <col min="6" max="6" width="15" customWidth="1"/>
-    <col min="7" max="7" width="14" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="2:7">
-      <c r="B1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
-      <c r="A2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="2">
-        <v>1</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
-      <c r="A3" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C3" s="2">
-        <v>1</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G3" s="3" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D4" s="2">
-        <v>1</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="G4" s="3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
-      <c r="A5" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E5" s="2">
-        <v>1</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G5" s="3" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7">
-      <c r="A6" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F6" s="2">
-        <v>1</v>
-      </c>
-      <c r="G6" s="3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
-      <c r="A7" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G7" s="2">
-        <v>1</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:G7"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:G7"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelRow="6" outlineLevelCol="6"/>
-  <cols>
-    <col min="1" max="1" width="15" customWidth="1"/>
-    <col min="2" max="5" width="14" customWidth="1"/>
-    <col min="6" max="6" width="15" customWidth="1"/>
-    <col min="7" max="7" width="14" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="2:7">
-      <c r="B1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
-      <c r="A2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="2">
-        <v>1</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
-      <c r="A3" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C3" s="2">
-        <v>1</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="G3" s="3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D4" s="2">
-        <v>1</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G4" s="3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
-      <c r="A5" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E5" s="2">
-        <v>1</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="G5" s="3" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7">
-      <c r="A6" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F6" s="2">
-        <v>1</v>
-      </c>
-      <c r="G6" s="3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
-      <c r="A7" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G7" s="2">
-        <v>1</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:G7"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
@@ -1914,19 +1211,19 @@
         <v>1</v>
       </c>
       <c r="C2" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="E2" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="F2" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="F2" s="3" t="s">
-        <v>7</v>
-      </c>
       <c r="G2" s="3" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -1940,10 +1237,10 @@
         <v>1</v>
       </c>
       <c r="D3" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3" s="3" t="s">
         <v>13</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="F3" s="3" t="s">
         <v>14</v>
@@ -1966,13 +1263,13 @@
         <v>1</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -1992,10 +1289,10 @@
         <v>1</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -2019,6 +1316,730 @@
       </c>
       <c r="G6" s="3" t="s">
         <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G7" s="2">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:G7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G6" sqref="G6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelRow="6" outlineLevelCol="6"/>
+  <cols>
+    <col min="1" max="1" width="15" customWidth="1"/>
+    <col min="2" max="5" width="14" customWidth="1"/>
+    <col min="6" max="6" width="15" customWidth="1"/>
+    <col min="7" max="7" width="14" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:7">
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="2">
+        <v>1</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" s="2">
+        <v>1</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" s="2">
+        <v>1</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E5" s="2">
+        <v>1</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F6" s="2">
+        <v>1</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G7" s="2">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:G7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G6" sqref="G6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelRow="6" outlineLevelCol="6"/>
+  <cols>
+    <col min="1" max="1" width="15" customWidth="1"/>
+    <col min="2" max="5" width="14" customWidth="1"/>
+    <col min="6" max="6" width="15" customWidth="1"/>
+    <col min="7" max="7" width="14" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:7">
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="2">
+        <v>1</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" s="2">
+        <v>1</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" s="2">
+        <v>1</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E5" s="2">
+        <v>1</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F6" s="2">
+        <v>1</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G7" s="2">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:G7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G6" sqref="G6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelRow="6" outlineLevelCol="6"/>
+  <cols>
+    <col min="1" max="1" width="15" customWidth="1"/>
+    <col min="2" max="5" width="14" customWidth="1"/>
+    <col min="6" max="6" width="15" customWidth="1"/>
+    <col min="7" max="7" width="14" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:7">
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="2">
+        <v>1</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" s="2">
+        <v>1</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" s="2">
+        <v>1</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E5" s="2">
+        <v>1</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F6" s="2">
+        <v>1</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G7" s="2">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:G7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelRow="6" outlineLevelCol="6"/>
+  <cols>
+    <col min="1" max="1" width="15" customWidth="1"/>
+    <col min="2" max="5" width="14" customWidth="1"/>
+    <col min="6" max="6" width="15" customWidth="1"/>
+    <col min="7" max="7" width="14" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:7">
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="2">
+        <v>1</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" s="2">
+        <v>1</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" s="2">
+        <v>1</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E5" s="2">
+        <v>1</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F6" s="2">
+        <v>1</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -2063,15 +2084,15 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="B2">
         <v>0.2</v>
@@ -2079,7 +2100,7 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="B3">
         <v>0.2</v>
@@ -2087,7 +2108,7 @@
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="B4">
         <v>0.2</v>
@@ -2095,7 +2116,7 @@
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="B5">
         <v>0.2</v>
@@ -2103,7 +2124,7 @@
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="B6">
         <v>0.2</v>
@@ -2128,77 +2149,77 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" s="1" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
     </row>
     <row r="7" spans="1:1">
       <c r="A7" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
     </row>
     <row r="8" spans="1:1">
       <c r="A8" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
     </row>
     <row r="9" spans="1:1">
       <c r="A9" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
     </row>
     <row r="10" spans="1:1">
       <c r="A10" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
     </row>
     <row r="11" spans="1:1">
       <c r="A11" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
     </row>
     <row r="12" spans="1:1">
       <c r="A12" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
     </row>
     <row r="13" spans="1:1">
       <c r="A13" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
     </row>
     <row r="14" spans="1:1">
       <c r="A14" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
     </row>
     <row r="15" spans="1:1">
       <c r="A15" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
     </row>
   </sheetData>

--- a/input/ahp_template_Goal.xlsx
+++ b/input/ahp_template_Goal.xlsx
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="32">
   <si>
     <t>技术风险C1</t>
   </si>
@@ -54,6 +54,9 @@
   </si>
   <si>
     <t>1</t>
+  </si>
+  <si>
+    <t>2</t>
   </si>
   <si>
     <t/>
@@ -1134,7 +1137,7 @@
   <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelRow="6" outlineLevelCol="6"/>
@@ -1179,13 +1182,13 @@
         <v>7</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -1193,22 +1196,22 @@
         <v>1</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C3" s="2">
         <v>1</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -1216,22 +1219,22 @@
         <v>2</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D4" s="2">
         <v>1</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -1239,22 +1242,22 @@
         <v>3</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E5" s="2">
         <v>1</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -1262,22 +1265,22 @@
         <v>4</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F6" s="2">
         <v>1</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -1285,19 +1288,19 @@
         <v>5</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G7" s="2">
         <v>1</v>
@@ -1354,19 +1357,19 @@
         <v>1</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -1374,22 +1377,22 @@
         <v>1</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C3" s="2">
         <v>1</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -1397,22 +1400,22 @@
         <v>2</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D4" s="2">
         <v>1</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -1420,22 +1423,22 @@
         <v>3</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E5" s="2">
         <v>1</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -1443,22 +1446,22 @@
         <v>4</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F6" s="2">
         <v>1</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -1466,19 +1469,19 @@
         <v>5</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G7" s="2">
         <v>1</v>
@@ -1535,19 +1538,19 @@
         <v>1</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -1555,22 +1558,22 @@
         <v>1</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C3" s="2">
         <v>1</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -1578,22 +1581,22 @@
         <v>2</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D4" s="2">
         <v>1</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -1601,22 +1604,22 @@
         <v>3</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E5" s="2">
         <v>1</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -1624,22 +1627,22 @@
         <v>4</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F6" s="2">
         <v>1</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -1647,19 +1650,19 @@
         <v>5</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G7" s="2">
         <v>1</v>
@@ -1716,19 +1719,19 @@
         <v>1</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -1736,22 +1739,22 @@
         <v>1</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C3" s="2">
         <v>1</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -1759,22 +1762,22 @@
         <v>2</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D4" s="2">
         <v>1</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -1782,22 +1785,22 @@
         <v>3</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E5" s="2">
         <v>1</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -1805,22 +1808,22 @@
         <v>4</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F6" s="2">
         <v>1</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -1828,19 +1831,19 @@
         <v>5</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G7" s="2">
         <v>1</v>
@@ -1897,19 +1900,19 @@
         <v>1</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -1917,22 +1920,22 @@
         <v>1</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C3" s="2">
         <v>1</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -1940,22 +1943,22 @@
         <v>2</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D4" s="2">
         <v>1</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -1963,22 +1966,22 @@
         <v>3</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E5" s="2">
         <v>1</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -1986,22 +1989,22 @@
         <v>4</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F6" s="2">
         <v>1</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -2009,19 +2012,19 @@
         <v>5</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G7" s="2">
         <v>1</v>
@@ -2046,15 +2049,15 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B2">
         <v>0.2</v>
@@ -2062,7 +2065,7 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B3">
         <v>0.2</v>
@@ -2070,7 +2073,7 @@
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B4">
         <v>0.2</v>
@@ -2078,7 +2081,7 @@
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B5">
         <v>0.2</v>
@@ -2086,7 +2089,7 @@
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B6">
         <v>0.2</v>
@@ -2111,77 +2114,77 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="7" spans="1:1">
       <c r="A7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="8" spans="1:1">
       <c r="A8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="9" spans="1:1">
       <c r="A9" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="10" spans="1:1">
       <c r="A10" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="11" spans="1:1">
       <c r="A11" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="12" spans="1:1">
       <c r="A12" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="13" spans="1:1">
       <c r="A13" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="14" spans="1:1">
       <c r="A14" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="15" spans="1:1">
       <c r="A15" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
   </sheetData>
